--- a/gams_results/gams_salt_st3_50m_forward.xlsx
+++ b/gams_results/gams_salt_st3_50m_forward.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>expr</t>
   </si>
@@ -151,187 +151,88 @@
     <t>AMO_LAG_2</t>
   </si>
   <si>
-    <t>datetime + monthofyear</t>
-  </si>
-  <si>
-    <t>datetime + Qs</t>
-  </si>
-  <si>
-    <t>datetime + Qs_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + Qs_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + Qs_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>datetime + Qs_CUMSUM_3</t>
-  </si>
-  <si>
-    <t>datetime + QMinho</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>datetime + QMinho_CUMSUM_3</t>
-  </si>
-  <si>
-    <t>datetime + UI</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + NAO</t>
-  </si>
-  <si>
-    <t>datetime + NAO_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + NAO_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + EA</t>
-  </si>
-  <si>
-    <t>datetime + EA_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + EA_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + EAWR</t>
-  </si>
-  <si>
-    <t>datetime + EAWR_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + EAWR_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + SCAND</t>
-  </si>
-  <si>
-    <t>datetime + SCAND_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + SCAND_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + WP</t>
-  </si>
-  <si>
-    <t>datetime + WP_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + WP_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + AMO</t>
-  </si>
-  <si>
-    <t>datetime + AMO_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + AMO_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + monthofyear</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + Qs</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + Qs_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + Qs_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + Qs_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + Qs_CUMSUM_3</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + QMinho</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + QMinho_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + QMinho_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + QMinho_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + QMinho_CUMSUM_3</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + NAO</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + NAO_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + NAO_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + EA</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + EA_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + EA_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + EAWR</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + EAWR_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + EAWR_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + SCAND</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + SCAND_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + SCAND_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + WP</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + WP_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + WP_LAG_2</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + AMO</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + AMO_LAG_1</t>
-  </si>
-  <si>
-    <t>datetime + UI_LAG_1 + AMO_LAG_2</t>
+    <t>QMinho_CUMSUM_3 + datetime</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + monthofyear</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_CUMSUM_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + Qs_CUMSUM_3</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + UI</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + UI_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + UI_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + NAO</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + NAO_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + NAO_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EA</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EA_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EA_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EAWR</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EAWR_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + EAWR_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + SCAND</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + SCAND_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + SCAND_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + WP</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + WP_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + WP_LAG_2</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + AMO</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + AMO_LAG_1</t>
+  </si>
+  <si>
+    <t>QMinho_CUMSUM_3 + AMO_LAG_2</t>
   </si>
   <si>
     <t>{'datetime': [0.03471656280833694]}</t>
@@ -433,187 +334,88 @@
     <t>{'AMO_LAG_2': [7.271634148924211e-06]}</t>
   </si>
   <si>
-    <t>{'datetime': [0.03471656280833694], 'monthofyear': [0.06388838394850581]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'Qs': [0.013671288044048173]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'Qs_LAG_1': [0.009175474386581225]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'Qs_LAG_2': [0.009577096291657107]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'Qs_CUMSUM_2': [0.03724789200600254]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'Qs_CUMSUM_3': [0.00851073563848783]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'QMinho': [0.08097803350448657]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'QMinho_LAG_1': [0.2508233952922477]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'QMinho_LAG_2': [0.16548658018190615]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'QMinho_CUMSUM_2': [0.18536886695203952]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'QMinho_CUMSUM_3': [0.22890069158192544]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI': [0.017407958900904966]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_2': [0.012255184495271071]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'NAO': [0.001962225268866255]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'NAO_LAG_1': [0.017262063336714133]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'NAO_LAG_2': [0.0003876424514197722]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'EA': [0.0049908354577040855]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'EA_LAG_1': [0.03080637758771365]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'EA_LAG_2': [0.0017527979360262645]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'EAWR': [0.0006916130493770457]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'EAWR_LAG_1': [0.004171009237205972]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'EAWR_LAG_2': [0.00423499773023629]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'SCAND': [0.0023428965950360978]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'SCAND_LAG_1': [0.002767236260701883]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'SCAND_LAG_2': [0.0005407173286451644]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'WP': [2.808899044286827e-05]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'WP_LAG_1': [0.002934362832884477]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'WP_LAG_2': [0.001213215266873525]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'AMO': [0.0010269589871118613]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'AMO_LAG_1': [0.0008002972504576324]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'AMO_LAG_2': [7.271634148924211e-06]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'monthofyear': [0.06388838394850581]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'Qs': [0.013671288044048173]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'Qs_LAG_1': [0.009175474386581225]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'Qs_LAG_2': [0.009577096291657107]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'Qs_CUMSUM_2': [0.03724789200600254]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'Qs_CUMSUM_3': [0.00851073563848783]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'QMinho': [0.08097803350448657]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'QMinho_LAG_1': [0.2508233952922477]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'QMinho_LAG_2': [0.16548658018190615]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'QMinho_CUMSUM_2': [0.18536886695203952]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'QMinho_CUMSUM_3': [0.22890069158192544]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'NAO': [0.001962225268866255]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'NAO_LAG_1': [0.017262063336714133]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'NAO_LAG_2': [0.0003876424514197722]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'EA': [0.0049908354577040855]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'EA_LAG_1': [0.03080637758771365]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'EA_LAG_2': [0.0017527979360262645]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'EAWR': [0.0006916130493770457]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'EAWR_LAG_1': [0.004171009237205972]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'EAWR_LAG_2': [0.00423499773023629]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'SCAND': [0.0023428965950360978]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'SCAND_LAG_1': [0.002767236260701883]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'SCAND_LAG_2': [0.0005407173286451644]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'WP': [2.808899044286827e-05]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'WP_LAG_1': [0.002934362832884477]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'WP_LAG_2': [0.001213215266873525]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'AMO': [0.0010269589871118613]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'AMO_LAG_1': [0.0008002972504576324]}</t>
-  </si>
-  <si>
-    <t>{'datetime': [0.03471656280833694], 'UI_LAG_1': [0.000132979367837392], 'AMO_LAG_2': [7.271634148924211e-06]}</t>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'datetime': [0.03471656280833694]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'monthofyear': [0.06388838394850581]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'Qs': [0.013671288044048173]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'Qs_LAG_1': [0.009175474386581225]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'Qs_LAG_2': [0.009577096291657107]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'Qs_CUMSUM_2': [0.03724789200600254]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'Qs_CUMSUM_3': [0.00851073563848783]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'UI': [0.017407958900904966]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'UI_LAG_1': [0.000132979367837392]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'UI_LAG_2': [0.012255184495271071]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'NAO': [0.001962225268866255]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'NAO_LAG_1': [0.017262063336714133]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'NAO_LAG_2': [0.0003876424514197722]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'EA': [0.0049908354577040855]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'EA_LAG_1': [0.03080637758771365]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'EA_LAG_2': [0.0017527979360262645]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'EAWR': [0.0006916130493770457]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'EAWR_LAG_1': [0.004171009237205972]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'EAWR_LAG_2': [0.00423499773023629]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'SCAND': [0.0023428965950360978]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'SCAND_LAG_1': [0.002767236260701883]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'SCAND_LAG_2': [0.0005407173286451644]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'WP': [2.808899044286827e-05]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'WP_LAG_1': [0.002934362832884477]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'WP_LAG_2': [0.001213215266873525]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'AMO': [0.0010269589871118613]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'AMO_LAG_1': [0.0008002972504576324]}</t>
+  </si>
+  <si>
+    <t>{'QMinho_CUMSUM_3': [0.22890069158192544], 'AMO_LAG_2': [7.271634148924211e-06]}</t>
   </si>
   <si>
     <t>[1.1102230246251565e-16, 1.1102230246251565e-16]</t>
@@ -709,187 +511,88 @@
     <t>[1.60406843363603e-09, 1.1102230246251565e-16]</t>
   </si>
   <si>
-    <t>[1.1102230246251565e-16, 0.711033530451906, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.8191837288520607, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.8269611494500122, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.9292883628085301, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.48090177961513425, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.826596322138473, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0011008550261829564, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.12933848062562525, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0003794190215332671, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.017914738963327292, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.00019947209312354275, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0033910152722373965, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.000584495624950554, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0016376343129821391, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.04815685688082649, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.09066227871613186, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.016527092824670908, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.03267864707326584, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.20774383946053554, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.05306430503506643, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 4.8399049989988896e-08, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.00038680173544347607, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.005794537969791014, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.11043087821730968, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.9476617569330935, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.7647769229862276, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.8841168956696204, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.21586718712527708, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.6899220841584905, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.007904275574927344, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.009083287438609644, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.013662276858290023, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.03791666903005775, 0.5552888438595477, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.02244510852737802, 0.8856982459214994, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.001612493329880893, 0.4155850310314346, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0007371966174204436, 0.49119565880354055, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.004093334769476598, 0.34047014151265653, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.001770949160515345, 0.4995719854894306, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.000174990588955648, 1.1044050172159814e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.006312472355397225, 0.004370858196232841, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.029539314506483172, 0.007025610123740478, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.00041927565120092325, 4.673667193588749e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.000823107978627502, 3.80342152798141e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.02453100567802624, 0.03040214841175659, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.040737267768412466, 0.24525788296168427, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.04605216861431205, 0.1815269738579467, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.016401968346942963, 0.060569651379621114, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.03270473848559341, 0.4397618001286818, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.10214985447386737, 0.11772557213937962, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.03185346841143166, 0.00013460341784299334, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.03334999525127347, 0.006016921619442672, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.08055484747956221, 0.08259033387613168, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.015401367355394213, 0.25787025395009033, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.02433683325567282, 0.8575217805762677, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.037176996413868846, 0.84869536379126, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.023600759224389534, 0.8968651935961441, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.031265201385950014, 0.28634934063297635, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0136033674203615, 0.6591218349532375, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.028481319754612877, 0.02338174624304601, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.12286760937446084, 0.022170592998363103, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.03855734405797995, 0.0019273625935209981, 1.1102230246251565e-16]</t>
+    <t>[0.0001994723910433427, 1.1102230246251565e-16, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[9.685428269945451e-05, 1.1102230246251565e-16, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.9338841908062212, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.8211623453562735, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.8302560325013593, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.6340877363968009, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1102230246251565e-16, 0.6732708811759756, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.7467516039436646e-09, 0.188756650733511, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.8986164629651867e-06, 0.03208683941012824, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[4.907019922062439e-06, 0.06598066635818622, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.6653345369377348e-15, 0.13057898198168683, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[6.2200244954624395e-12, 0.031149296538018012, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.3733458814613186e-13, 0.000401618232429346, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[3.11972669919669e-14, 0.3281292236411828, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.964295475749168e-14, 0.7752450823431495, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.3746781490908688e-12, 0.26455666444413306, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.0872192862952943e-14, 0.03952303591662554, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[3.3306690738754696e-15, 0.3184718984682764, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.0226434136239035e-05, 0.1150034457005964, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[9.992007221626409e-15, 0.1878783924886448, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[6.772360450213455e-15, 0.5124831861115254, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.3322676295501878e-14, 0.8832307709950877, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[5.551115123125783e-15, 0.8725816999029509, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[5.995204332975845e-15, 0.3987035858320599, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.7755575615628914e-15, 0.5741046956075769, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.7201648105924505e-07, 1.630465885527066e-06, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.3158139577917893e-08, 4.813292802108293e-07, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.0231483155441765e-10, 2.8724732269447273e-06, 1.1102230246251565e-16]</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,13 +1026,13 @@
         <v>0.2629940677255784</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L2">
         <v>251</v>
       </c>
       <c r="M2" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1364,13 +1067,13 @@
         <v>0.1551452949734155</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="L3">
         <v>251</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1405,13 +1108,13 @@
         <v>0.1558928744526502</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="L4">
         <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1446,13 +1149,13 @@
         <v>0.1566539478169192</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="L5">
         <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1487,13 +1190,13 @@
         <v>0.1562608393448749</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="L6">
         <v>251</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1528,13 +1231,13 @@
         <v>0.156378071315565</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="L7">
         <v>251</v>
       </c>
       <c r="M7" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1569,13 +1272,13 @@
         <v>0.1566524181967325</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="L8">
         <v>251</v>
       </c>
       <c r="M8" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1610,13 +1313,13 @@
         <v>0.1545615512864402</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="L9">
         <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1651,13 +1354,13 @@
         <v>0.1499638004328629</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="L10">
         <v>251</v>
       </c>
       <c r="M10" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1692,13 +1395,13 @@
         <v>0.1512541874809911</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="L11">
         <v>251</v>
       </c>
       <c r="M11" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1733,13 +1436,13 @@
         <v>0.1514425905369563</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="L12">
         <v>251</v>
       </c>
       <c r="M12" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1774,13 +1477,13 @@
         <v>0.1500172923386865</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1815,13 +1518,13 @@
         <v>0.1557611625790375</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="L14">
         <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1856,13 +1559,13 @@
         <v>0.155331360951681</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="L15">
         <v>251</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1897,13 +1600,13 @@
         <v>0.155886081537716</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L16">
         <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1938,13 +1641,13 @@
         <v>0.1593125995658435</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="L17">
         <v>251</v>
       </c>
       <c r="M17" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1979,13 +1682,13 @@
         <v>0.1575927913150216</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="L18">
         <v>251</v>
       </c>
       <c r="M18" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2020,13 +1723,13 @@
         <v>0.1610439672284731</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="L19">
         <v>251</v>
       </c>
       <c r="M19" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2061,13 +1764,13 @@
         <v>0.1528720631754918</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="L20">
         <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2102,13 +1805,13 @@
         <v>0.1543176386780363</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="L21">
         <v>251</v>
       </c>
       <c r="M21" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2143,13 +1846,13 @@
         <v>0.1511849171436435</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="L22">
         <v>251</v>
       </c>
       <c r="M22" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2184,13 +1887,13 @@
         <v>0.1563632105634978</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="L23">
         <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2225,13 +1928,13 @@
         <v>0.1555540692630676</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="L24">
         <v>251</v>
       </c>
       <c r="M24" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2266,13 +1969,13 @@
         <v>0.1563745178310591</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L25">
         <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2307,13 +2010,13 @@
         <v>0.1563521060604879</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="L26">
         <v>251</v>
       </c>
       <c r="M26" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2348,13 +2051,13 @@
         <v>0.1563329602260363</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L27">
         <v>251</v>
       </c>
       <c r="M27" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2389,13 +2092,13 @@
         <v>0.1571958409956898</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="L28">
         <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2430,13 +2133,13 @@
         <v>0.1560968667752629</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>251</v>
       </c>
       <c r="M29" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2471,13 +2174,13 @@
         <v>0.1570525607849523</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L30">
         <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2512,13 +2215,13 @@
         <v>0.156337784482288</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="L31">
         <v>251</v>
       </c>
       <c r="M31" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2553,13 +2256,13 @@
         <v>0.1496355093270823</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="L32">
         <v>251</v>
       </c>
       <c r="M32" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2594,13 +2297,13 @@
         <v>0.1480931877730156</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L33">
         <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2635,13 +2338,13 @@
         <v>0.1477797868530656</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="L34">
         <v>251</v>
       </c>
       <c r="M34" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2652,37 +2355,37 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>26929.33591610173</v>
+        <v>29359.44330726202</v>
       </c>
       <c r="D35">
-        <v>0.3391204789879553</v>
+        <v>0.3371664406326104</v>
       </c>
       <c r="E35">
-        <v>0.4557178800858628</v>
+        <v>0.486153950655544</v>
       </c>
       <c r="F35">
-        <v>0.526771389533636</v>
+        <v>0.4973839100375135</v>
       </c>
       <c r="G35">
-        <v>0.4724585923146075</v>
+        <v>0.5020466862969273</v>
       </c>
       <c r="H35">
-        <v>-13444.01591071223</v>
+        <v>-14661.93671077533</v>
       </c>
       <c r="I35">
-        <v>0.09394143186240625</v>
+        <v>0.1020874663407318</v>
       </c>
       <c r="J35">
-        <v>0.2467906436011658</v>
+        <v>0.2926629979505929</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="L35">
         <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2693,37 +2396,37 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>26985.01530197653</v>
+        <v>17561.5146673057</v>
       </c>
       <c r="D36">
-        <v>0.3253099473136185</v>
+        <v>0.0882015512240997</v>
       </c>
       <c r="E36">
-        <v>0.4491514693998733</v>
+        <v>0.08111154051631964</v>
       </c>
       <c r="F36">
-        <v>0.5334324917400403</v>
+        <v>0.9116048024421214</v>
       </c>
       <c r="G36">
-        <v>0.4658535448406241</v>
+        <v>0.08784684201797477</v>
       </c>
       <c r="H36">
-        <v>-13473.47431417315</v>
+        <v>-8774.479241338207</v>
       </c>
       <c r="I36">
-        <v>0.0978053262729546</v>
+        <v>0.09351431224887165</v>
       </c>
       <c r="J36">
-        <v>0.2615981961309402</v>
+        <v>0.1492624850202112</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="L36">
         <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2734,37 +2437,37 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>26840.36771001023</v>
+        <v>17928.08395737492</v>
       </c>
       <c r="D37">
-        <v>0.3262374648609936</v>
+        <v>0.09275471617722587</v>
       </c>
       <c r="E37">
-        <v>0.4463565451358761</v>
+        <v>0.08539367654089103</v>
       </c>
       <c r="F37">
-        <v>0.5361756787014019</v>
+        <v>0.9071075620797182</v>
       </c>
       <c r="G37">
-        <v>0.4631026041983222</v>
+        <v>0.09254103872724218</v>
       </c>
       <c r="H37">
-        <v>-13401.14529766505</v>
+        <v>-8959.571181821811</v>
       </c>
       <c r="I37">
-        <v>0.095810443039074</v>
+        <v>0.09271869410520821</v>
       </c>
       <c r="J37">
-        <v>0.2539250809669314</v>
+        <v>0.1488034457452599</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="L37">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2775,37 +2478,37 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>26620.68397181071</v>
+        <v>17996.51955619433</v>
       </c>
       <c r="D38">
-        <v>0.326515166859388</v>
+        <v>0.09807509086608308</v>
       </c>
       <c r="E38">
-        <v>0.442014578693915</v>
+        <v>0.08858510906729067</v>
       </c>
       <c r="F38">
-        <v>0.5404410928204664</v>
+        <v>0.9036868154264246</v>
       </c>
       <c r="G38">
-        <v>0.4588254677561339</v>
+        <v>0.0959653274219564</v>
       </c>
       <c r="H38">
-        <v>-13291.30418935292</v>
+        <v>-8993.797785704926</v>
       </c>
       <c r="I38">
-        <v>0.09722606390999734</v>
+        <v>0.09270678265645919</v>
       </c>
       <c r="J38">
-        <v>0.2562016848533436</v>
+        <v>0.1480869781642123</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="L38">
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2816,37 +2519,37 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>26854.35004792079</v>
+        <v>17956.80223977831</v>
       </c>
       <c r="D39">
-        <v>0.3239431588498252</v>
+        <v>0.0962075494046323</v>
       </c>
       <c r="E39">
-        <v>0.4466789785060281</v>
+        <v>0.08651848331474843</v>
       </c>
       <c r="F39">
-        <v>0.5358576761293053</v>
+        <v>0.9059032462617124</v>
       </c>
       <c r="G39">
-        <v>0.4634210017740584</v>
+        <v>0.09374972748795241</v>
       </c>
       <c r="H39">
-        <v>-13408.12624316557</v>
+        <v>-8973.963444952238</v>
       </c>
       <c r="I39">
-        <v>0.09681214019883472</v>
+        <v>0.09327242781586369</v>
       </c>
       <c r="J39">
-        <v>0.2574879137998839</v>
+        <v>0.1482678019938251</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="L39">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2857,37 +2560,37 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>26818.16623573209</v>
+        <v>17967.63412113414</v>
       </c>
       <c r="D40">
-        <v>0.3272215624497206</v>
+        <v>0.09580325214789172</v>
       </c>
       <c r="E40">
-        <v>0.4458304178846599</v>
+        <v>0.08724801597250487</v>
       </c>
       <c r="F40">
-        <v>0.5366949379436881</v>
+        <v>0.9051195000777604</v>
       </c>
       <c r="G40">
-        <v>0.4625828129038088</v>
+        <v>0.09453105925697824</v>
       </c>
       <c r="H40">
-        <v>-13390.06364081713</v>
+        <v>-8979.350391056585</v>
       </c>
       <c r="I40">
-        <v>0.09518604925959313</v>
+        <v>0.09266465581801864</v>
       </c>
       <c r="J40">
-        <v>0.2513782628140948</v>
+        <v>0.148387543057229</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="L40">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2898,37 +2601,37 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>29710.98025353911</v>
+        <v>17996.22447844613</v>
       </c>
       <c r="D41">
-        <v>0.3368251402668171</v>
+        <v>0.09816073457992777</v>
       </c>
       <c r="E41">
-        <v>0.4911639704751896</v>
+        <v>0.08860152610619321</v>
       </c>
       <c r="F41">
-        <v>0.4925189599176806</v>
+        <v>0.9036689851571043</v>
       </c>
       <c r="G41">
-        <v>0.5069298899144052</v>
+        <v>0.09598274513715666</v>
       </c>
       <c r="H41">
-        <v>-14837.88588619568</v>
+        <v>-8993.646131009755</v>
       </c>
       <c r="I41">
-        <v>0.103424479026149</v>
+        <v>0.09268390487449552</v>
       </c>
       <c r="J41">
-        <v>0.3012406864510285</v>
+        <v>0.1480740099133509</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="L41">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2939,37 +2642,37 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>28227.3151752381</v>
+        <v>18037.73552283425</v>
       </c>
       <c r="D42">
-        <v>0.3461639355732746</v>
+        <v>0.1004165504897922</v>
       </c>
       <c r="E42">
-        <v>0.4657043038465637</v>
+        <v>0.09452859128498503</v>
       </c>
       <c r="F42">
-        <v>0.5173970062994999</v>
+        <v>0.8972911628226298</v>
       </c>
       <c r="G42">
-        <v>0.4819937194306497</v>
+        <v>0.1023100624624464</v>
       </c>
       <c r="H42">
-        <v>-14096.05840828498</v>
+        <v>-9013.861815159507</v>
       </c>
       <c r="I42">
-        <v>0.09750512184664893</v>
+        <v>0.09286533481878934</v>
       </c>
       <c r="J42">
-        <v>0.2652726144504082</v>
+        <v>0.1487255413063351</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="L42">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2980,37 +2683,37 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>28700.69500769263</v>
+        <v>18863.28748128443</v>
       </c>
       <c r="D43">
-        <v>0.354425579006407</v>
+        <v>0.1365523100190434</v>
       </c>
       <c r="E43">
-        <v>0.4740636707943872</v>
+        <v>0.1263647738870524</v>
       </c>
       <c r="F43">
-        <v>0.5092190048193515</v>
+        <v>0.8634609415568552</v>
       </c>
       <c r="G43">
-        <v>0.4901914992976448</v>
+        <v>0.1362417639358807</v>
       </c>
       <c r="H43">
-        <v>-14332.75523191351</v>
+        <v>-9427.397834013489</v>
       </c>
       <c r="I43">
-        <v>0.09384115827771881</v>
+        <v>0.08920361648631248</v>
       </c>
       <c r="J43">
-        <v>0.2499427904387352</v>
+        <v>0.1443430616041869</v>
       </c>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="L43">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3021,37 +2724,37 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>29154.28688995582</v>
+        <v>18642.84475252561</v>
       </c>
       <c r="D44">
-        <v>0.3244937311930972</v>
+        <v>0.1364669522168917</v>
       </c>
       <c r="E44">
-        <v>0.4828957707728392</v>
+        <v>0.1166565860156211</v>
       </c>
       <c r="F44">
-        <v>0.5005591284591367</v>
+        <v>0.8737566615751399</v>
       </c>
       <c r="G44">
-        <v>0.4988623497610201</v>
+        <v>0.1259392620466726</v>
       </c>
       <c r="H44">
-        <v>-14559.31649843933</v>
+        <v>-9317.17990104765</v>
       </c>
       <c r="I44">
-        <v>0.1040386475136385</v>
+        <v>0.09083498329537977</v>
       </c>
       <c r="J44">
-        <v>0.3032347327940725</v>
+        <v>0.142823825586392</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="L44">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3062,37 +2765,37 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>29359.44330726218</v>
+        <v>17844.55509628661</v>
       </c>
       <c r="D45">
-        <v>0.3371664406326272</v>
+        <v>0.08433962959638994</v>
       </c>
       <c r="E45">
-        <v>0.4861539506555415</v>
+        <v>0.08021772431010377</v>
       </c>
       <c r="F45">
-        <v>0.4973839100375162</v>
+        <v>0.9126720749028046</v>
       </c>
       <c r="G45">
-        <v>0.5020466862969245</v>
+        <v>0.08698883379056077</v>
       </c>
       <c r="H45">
-        <v>-14661.93671077541</v>
+        <v>-8917.964195828888</v>
       </c>
       <c r="I45">
-        <v>0.1020874663407301</v>
+        <v>0.09360317555697029</v>
       </c>
       <c r="J45">
-        <v>0.2926629979505814</v>
+        <v>0.1499714050071248</v>
       </c>
       <c r="K45" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="L45">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3103,37 +2806,37 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>28109.98832018446</v>
+        <v>18032.38118905024</v>
       </c>
       <c r="D46">
-        <v>0.3351250863903484</v>
+        <v>0.09144842454441628</v>
       </c>
       <c r="E46">
-        <v>0.4685457697914555</v>
+        <v>0.09392099796852649</v>
       </c>
       <c r="F46">
-        <v>0.5144735707376252</v>
+        <v>0.897944162626396</v>
       </c>
       <c r="G46">
-        <v>0.4848782052875767</v>
+        <v>0.1016614896562806</v>
       </c>
       <c r="H46">
-        <v>-14036.308758213</v>
+        <v>-9011.233155551667</v>
       </c>
       <c r="I46">
-        <v>0.09752482566926948</v>
+        <v>0.09262266449094578</v>
       </c>
       <c r="J46">
-        <v>0.2644331066743787</v>
+        <v>0.1506114576315787</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="L46">
         <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3144,37 +2847,37 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>27651.44649247064</v>
+        <v>18691.9763749185</v>
       </c>
       <c r="D47">
-        <v>0.3290754812528247</v>
+        <v>0.1108872105793536</v>
       </c>
       <c r="E47">
-        <v>0.4525837744361414</v>
+        <v>0.1239115420267252</v>
       </c>
       <c r="F47">
-        <v>0.5303285337247221</v>
+        <v>0.8660061462808687</v>
       </c>
       <c r="G47">
-        <v>0.4690549327107701</v>
+        <v>0.1336269771655965</v>
       </c>
       <c r="H47">
-        <v>-13808.66997363435</v>
+        <v>-9341.030934672428</v>
       </c>
       <c r="I47">
-        <v>0.0960533890453837</v>
+        <v>0.09132493059890053</v>
       </c>
       <c r="J47">
-        <v>0.2567984764828612</v>
+        <v>0.1504189471094163</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="L47">
         <v>251</v>
       </c>
       <c r="M47" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3185,37 +2888,37 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>27714.85288740472</v>
+        <v>17932.34597905238</v>
       </c>
       <c r="D48">
-        <v>0.3240882688944152</v>
+        <v>0.09672195402278463</v>
       </c>
       <c r="E48">
-        <v>0.4537525368743152</v>
+        <v>0.08459980133985234</v>
       </c>
       <c r="F48">
-        <v>0.5291824352243256</v>
+        <v>0.907966689212958</v>
       </c>
       <c r="G48">
-        <v>0.4702039546019958</v>
+        <v>0.09169533739086722</v>
       </c>
       <c r="H48">
-        <v>-13840.37792029314</v>
+        <v>-8961.837115466204</v>
       </c>
       <c r="I48">
-        <v>0.09898143840489378</v>
+        <v>0.09359367183594157</v>
       </c>
       <c r="J48">
-        <v>0.2698091091123377</v>
+        <v>0.1471652435263208</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="L48">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3226,37 +2929,37 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>28554.46309310526</v>
+        <v>17853.22871121075</v>
       </c>
       <c r="D49">
-        <v>0.3290819726825837</v>
+        <v>0.08810015997322997</v>
       </c>
       <c r="E49">
-        <v>0.4758076543202819</v>
+        <v>0.08078792256696155</v>
       </c>
       <c r="F49">
-        <v>0.5073901943107898</v>
+        <v>0.9120584983629352</v>
       </c>
       <c r="G49">
-        <v>0.4919853329237657</v>
+        <v>0.08760071172272976</v>
       </c>
       <c r="H49">
-        <v>-14258.68260875264</v>
+        <v>-8922.28055275095</v>
       </c>
       <c r="I49">
-        <v>0.1010646942264107</v>
+        <v>0.09331618203018567</v>
       </c>
       <c r="J49">
-        <v>0.2813164656479926</v>
+        <v>0.1488029526265773</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="L49">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3267,37 +2970,37 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>27634.38525312335</v>
+        <v>18173.28967641573</v>
       </c>
       <c r="D50">
-        <v>0.322070338142613</v>
+        <v>0.1079443729937319</v>
       </c>
       <c r="E50">
-        <v>0.4593398380431278</v>
+        <v>0.09594235433252996</v>
       </c>
       <c r="F50">
-        <v>0.5235022572427812</v>
+        <v>0.895820951062718</v>
       </c>
       <c r="G50">
-        <v>0.4758309609077921</v>
+        <v>0.1038503758009754</v>
       </c>
       <c r="H50">
-        <v>-13798.61740600395</v>
+        <v>-9082.312573925536</v>
       </c>
       <c r="I50">
-        <v>0.1010644509295111</v>
+        <v>0.09265079482002241</v>
       </c>
       <c r="J50">
-        <v>0.2802354475292053</v>
+        <v>0.1458539142852725</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="L50">
         <v>251</v>
       </c>
       <c r="M50" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3308,37 +3011,37 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>27857.63774539269</v>
+        <v>17969.26642648499</v>
       </c>
       <c r="D51">
-        <v>0.3372765739523845</v>
+        <v>0.08094014815760979</v>
       </c>
       <c r="E51">
-        <v>0.4634703418853501</v>
+        <v>0.0861803535467548</v>
       </c>
       <c r="F51">
-        <v>0.5194558509098696</v>
+        <v>0.9062729544443036</v>
       </c>
       <c r="G51">
-        <v>0.4798877527398984</v>
+        <v>0.09339286260266488</v>
       </c>
       <c r="H51">
-        <v>-13910.24157179083</v>
+        <v>-8980.321771105857</v>
       </c>
       <c r="I51">
-        <v>0.09418798632288297</v>
+        <v>0.0944919358748966</v>
       </c>
       <c r="J51">
-        <v>0.2464546314223898</v>
+        <v>0.1519267777503888</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="L51">
         <v>251</v>
       </c>
       <c r="M51" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3349,37 +3052,37 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>27744.13294021907</v>
+        <v>17800.63737707771</v>
       </c>
       <c r="D52">
-        <v>0.3186540724957536</v>
+        <v>0.08505233014937291</v>
       </c>
       <c r="E52">
-        <v>0.4620106744098817</v>
+        <v>0.07826129986467145</v>
       </c>
       <c r="F52">
-        <v>0.5208673462591115</v>
+        <v>0.914773235781399</v>
       </c>
       <c r="G52">
-        <v>0.4784666601009324</v>
+        <v>0.08488374449149694</v>
       </c>
       <c r="H52">
-        <v>-13853.3532361861</v>
+        <v>-8895.982891748468</v>
       </c>
       <c r="I52">
-        <v>0.09818492237430662</v>
+        <v>0.09375426927131342</v>
       </c>
       <c r="J52">
-        <v>0.2723680961174992</v>
+        <v>0.1494346011467565</v>
       </c>
       <c r="K52" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L52">
         <v>251</v>
       </c>
       <c r="M52" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3390,37 +3093,37 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>27487.45397577313</v>
+        <v>18170.6572386663</v>
       </c>
       <c r="D53">
-        <v>0.3200553270866693</v>
+        <v>0.1085628336066231</v>
       </c>
       <c r="E53">
-        <v>0.4572259369942906</v>
+        <v>0.1204715340175977</v>
       </c>
       <c r="F53">
-        <v>0.5255558826191449</v>
+        <v>0.8694455807285528</v>
       </c>
       <c r="G53">
-        <v>0.4737659229908874</v>
+        <v>0.1299097334630884</v>
       </c>
       <c r="H53">
-        <v>-13725.01578149907</v>
+        <v>-9077.597665126916</v>
       </c>
       <c r="I53">
-        <v>0.09621332470536857</v>
+        <v>0.09143265311150979</v>
       </c>
       <c r="J53">
-        <v>0.2609403265668743</v>
+        <v>0.1508744798676067</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="L53">
         <v>251</v>
       </c>
       <c r="M53" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3431,37 +3134,37 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>28410.05897045164</v>
+        <v>17813.17896916846</v>
       </c>
       <c r="D54">
-        <v>0.326055179682448</v>
+        <v>0.08316619308697845</v>
       </c>
       <c r="E54">
-        <v>0.4739926509789272</v>
+        <v>0.07882395703790801</v>
       </c>
       <c r="F54">
-        <v>0.509143459335111</v>
+        <v>0.9141687890442033</v>
       </c>
       <c r="G54">
-        <v>0.4902209845603687</v>
+        <v>0.08548927662135763</v>
       </c>
       <c r="H54">
-        <v>-14186.32091469877</v>
+        <v>-8902.259696605419</v>
       </c>
       <c r="I54">
-        <v>0.1010840942808871</v>
+        <v>0.09382060097538916</v>
       </c>
       <c r="J54">
-        <v>0.2813201277351735</v>
+        <v>0.1500466615280442</v>
       </c>
       <c r="K54" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="L54">
         <v>251</v>
       </c>
       <c r="M54" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3472,37 +3175,37 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>30369.97302471456</v>
+        <v>17823.8740809565</v>
       </c>
       <c r="D55">
-        <v>0.01254449416920528</v>
+        <v>0.08580027773139959</v>
       </c>
       <c r="E55">
-        <v>0.5246732372275449</v>
+        <v>0.07934160976073579</v>
       </c>
       <c r="F55">
-        <v>0.459243791810422</v>
+        <v>0.9136124947504805</v>
       </c>
       <c r="G55">
-        <v>0.5400877550206127</v>
+        <v>0.08604597916056655</v>
       </c>
       <c r="H55">
-        <v>-15161.91755461042</v>
+        <v>-8907.607203958089</v>
       </c>
       <c r="I55">
-        <v>0.08942615935028506</v>
+        <v>0.09339720536920765</v>
       </c>
       <c r="J55">
-        <v>0.5695003822443824</v>
+        <v>0.1493900644638479</v>
       </c>
       <c r="K55" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="L55">
         <v>251</v>
       </c>
       <c r="M55" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3513,37 +3216,37 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>28611.56557663863</v>
+        <v>17808.30579605949</v>
       </c>
       <c r="D56">
-        <v>0.3100421123745449</v>
+        <v>0.08569132336632573</v>
       </c>
       <c r="E56">
-        <v>0.4775287348803139</v>
+        <v>0.07855044551133705</v>
       </c>
       <c r="F56">
-        <v>0.5056873165045539</v>
+        <v>0.9144630194069718</v>
       </c>
       <c r="G56">
-        <v>0.4936858174510207</v>
+        <v>0.0851953608447914</v>
       </c>
       <c r="H56">
-        <v>-14287.07208039931</v>
+        <v>-8899.828152262879</v>
       </c>
       <c r="I56">
-        <v>0.1036336521095624</v>
+        <v>0.09358996308505202</v>
       </c>
       <c r="J56">
-        <v>0.3023821456493503</v>
+        <v>0.1493083954325742</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L56">
         <v>251</v>
       </c>
       <c r="M56" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3554,37 +3257,37 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>28049.68279256759</v>
+        <v>17808.81148617196</v>
       </c>
       <c r="D57">
-        <v>0.2998149914074176</v>
+        <v>0.08494420105062657</v>
       </c>
       <c r="E57">
-        <v>0.467031315491973</v>
+        <v>0.07888833502341852</v>
       </c>
       <c r="F57">
-        <v>0.5159678741836673</v>
+        <v>0.9140976468984293</v>
       </c>
       <c r="G57">
-        <v>0.4833840713184563</v>
+        <v>0.08555655322695654</v>
       </c>
       <c r="H57">
-        <v>-14006.2495780881</v>
+        <v>-8900.038890165264</v>
       </c>
       <c r="I57">
-        <v>0.1062645360992272</v>
+        <v>0.09375399700326648</v>
       </c>
       <c r="J57">
-        <v>0.3159565650811288</v>
+        <v>0.1496094177979324</v>
       </c>
       <c r="K57" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="L57">
         <v>251</v>
       </c>
       <c r="M57" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3595,37 +3298,37 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>27346.01329627527</v>
+        <v>17854.74425057969</v>
       </c>
       <c r="D58">
-        <v>0.3155198882799276</v>
+        <v>0.08200756248271238</v>
       </c>
       <c r="E58">
-        <v>0.4539644727444421</v>
+        <v>0.08109947240611604</v>
       </c>
       <c r="F58">
-        <v>0.5287707095090178</v>
+        <v>0.911722158103661</v>
       </c>
       <c r="G58">
-        <v>0.4705483281255098</v>
+        <v>0.08793392153806978</v>
       </c>
       <c r="H58">
-        <v>-13654.42218768083</v>
+        <v>-8923.006183751319</v>
       </c>
       <c r="I58">
-        <v>0.1032982433552696</v>
+        <v>0.09387162284480642</v>
       </c>
       <c r="J58">
-        <v>0.2906753910711452</v>
+        <v>0.1507260406306556</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="L58">
         <v>251</v>
       </c>
       <c r="M58" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3636,37 +3339,37 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>26763.34749411245</v>
+        <v>17824.66200856795</v>
       </c>
       <c r="D59">
-        <v>0.3204150468534</v>
+        <v>0.08463507091170951</v>
       </c>
       <c r="E59">
-        <v>0.4426865189249517</v>
+        <v>0.07960162323018427</v>
       </c>
       <c r="F59">
-        <v>0.5398421467546896</v>
+        <v>0.9133315216435334</v>
       </c>
       <c r="G59">
-        <v>0.4594473831768665</v>
+        <v>0.08632401097378095</v>
       </c>
       <c r="H59">
-        <v>-13363.08698880729</v>
+        <v>-8907.971319993088</v>
       </c>
       <c r="I59">
-        <v>0.1008248072863817</v>
+        <v>0.09382485037764533</v>
       </c>
       <c r="J59">
-        <v>0.2727267396219134</v>
+        <v>0.1498591080145418</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="L59">
         <v>251</v>
       </c>
       <c r="M59" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3677,37 +3380,37 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>26991.94489886015</v>
+        <v>19949.87786229308</v>
       </c>
       <c r="D60">
-        <v>0.3286427645596761</v>
+        <v>0.1550756540116557</v>
       </c>
       <c r="E60">
-        <v>0.447163832169905</v>
+        <v>0.1716106019226169</v>
       </c>
       <c r="F60">
-        <v>0.5354443519198016</v>
+        <v>0.8158587757887128</v>
       </c>
       <c r="G60">
-        <v>0.4638570030860595</v>
+        <v>0.1838696233087024</v>
       </c>
       <c r="H60">
-        <v>-13477.38722496178</v>
+        <v>-9970.619693322053</v>
       </c>
       <c r="I60">
-        <v>0.09703979897261801</v>
+        <v>0.08827673694572258</v>
       </c>
       <c r="J60">
-        <v>0.2574795674119568</v>
+        <v>0.1462771540423381</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L60">
         <v>251</v>
       </c>
       <c r="M60" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3718,37 +3421,37 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>26765.83623896581</v>
+        <v>19919.28441827259</v>
       </c>
       <c r="D61">
-        <v>0.314411607407528</v>
+        <v>0.1583235352457317</v>
       </c>
       <c r="E61">
-        <v>0.4435781608493358</v>
+        <v>0.1704121302477321</v>
       </c>
       <c r="F61">
-        <v>0.5389421029773753</v>
+        <v>0.8171115709813058</v>
       </c>
       <c r="G61">
-        <v>0.4603415556355879</v>
+        <v>0.1826160247857467</v>
       </c>
       <c r="H61">
-        <v>-13364.15499192134</v>
+        <v>-9955.323357318252</v>
       </c>
       <c r="I61">
-        <v>0.1008763286758163</v>
+        <v>0.08741230199613449</v>
       </c>
       <c r="J61">
-        <v>0.2765921110028623</v>
+        <v>0.1451435599812962</v>
       </c>
       <c r="K61" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="L61">
         <v>251</v>
       </c>
       <c r="M61" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3759,1390 +3462,37 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>27589.74614900661</v>
+        <v>20089.05048270566</v>
       </c>
       <c r="D62">
-        <v>0.3427302537708297</v>
+        <v>0.1679739181549826</v>
       </c>
       <c r="E62">
-        <v>0.459413143637197</v>
+        <v>0.177022287826552</v>
       </c>
       <c r="F62">
-        <v>0.5234044457503669</v>
+        <v>0.8102069772704065</v>
       </c>
       <c r="G62">
-        <v>0.4759203971315704</v>
+        <v>0.18952498463032</v>
       </c>
       <c r="H62">
-        <v>-13776.10281299927</v>
+        <v>-10040.20367392059</v>
       </c>
       <c r="I62">
-        <v>0.09227314824677026</v>
+        <v>0.086537227108753</v>
       </c>
       <c r="J62">
-        <v>0.2364006663774594</v>
+        <v>0.1436399909728472</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="L62">
         <v>251</v>
       </c>
       <c r="M62" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63">
-        <v>26964.80654872748</v>
-      </c>
-      <c r="D63">
-        <v>0.3235557847748383</v>
-      </c>
-      <c r="E63">
-        <v>0.4474921894261716</v>
-      </c>
-      <c r="F63">
-        <v>0.5350975383598813</v>
-      </c>
-      <c r="G63">
-        <v>0.4641963749148793</v>
-      </c>
-      <c r="H63">
-        <v>-13463.6373626678</v>
-      </c>
-      <c r="I63">
-        <v>0.09746592336675981</v>
-      </c>
-      <c r="J63">
-        <v>0.2619793155303151</v>
-      </c>
-      <c r="K63" t="s">
-        <v>167</v>
-      </c>
-      <c r="L63">
-        <v>251</v>
-      </c>
-      <c r="M63" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64">
-        <v>28758.69090746041</v>
-      </c>
-      <c r="D64">
-        <v>0.3986796109272611</v>
-      </c>
-      <c r="E64">
-        <v>0.4787878284758195</v>
-      </c>
-      <c r="F64">
-        <v>0.5044945985707194</v>
-      </c>
-      <c r="G64">
-        <v>0.4948933505833941</v>
-      </c>
-      <c r="H64">
-        <v>-14360.92283910502</v>
-      </c>
-      <c r="I64">
-        <v>0.08015815020198323</v>
-      </c>
-      <c r="J64">
-        <v>0.1811299784957379</v>
-      </c>
-      <c r="K64" t="s">
-        <v>168</v>
-      </c>
-      <c r="L64">
-        <v>251</v>
-      </c>
-      <c r="M64" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65">
-        <v>28389.73433912352</v>
-      </c>
-      <c r="D65">
-        <v>0.3780726936541554</v>
-      </c>
-      <c r="E65">
-        <v>0.4723948258681743</v>
-      </c>
-      <c r="F65">
-        <v>0.5107415550787846</v>
-      </c>
-      <c r="G65">
-        <v>0.4886303337095896</v>
-      </c>
-      <c r="H65">
-        <v>-14176.43295769267</v>
-      </c>
-      <c r="I65">
-        <v>0.08454803979036941</v>
-      </c>
-      <c r="J65">
-        <v>0.2007516647925456</v>
-      </c>
-      <c r="K65" t="s">
-        <v>169</v>
-      </c>
-      <c r="L65">
-        <v>251</v>
-      </c>
-      <c r="M65" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66">
-        <v>28490.4114186171</v>
-      </c>
-      <c r="D66">
-        <v>0.3768788969041239</v>
-      </c>
-      <c r="E66">
-        <v>0.4740975216992706</v>
-      </c>
-      <c r="F66">
-        <v>0.5090788266025661</v>
-      </c>
-      <c r="G66">
-        <v>0.4902978929417076</v>
-      </c>
-      <c r="H66">
-        <v>-14226.78742732969</v>
-      </c>
-      <c r="I66">
-        <v>0.08445168793777015</v>
-      </c>
-      <c r="J66">
-        <v>0.2009366402057108</v>
-      </c>
-      <c r="K66" t="s">
-        <v>170</v>
-      </c>
-      <c r="L66">
-        <v>251</v>
-      </c>
-      <c r="M66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67">
-        <v>26617.95369027319</v>
-      </c>
-      <c r="D67">
-        <v>0.3589418028946941</v>
-      </c>
-      <c r="E67">
-        <v>0.4799411859120262</v>
-      </c>
-      <c r="F67">
-        <v>0.502184812522411</v>
-      </c>
-      <c r="G67">
-        <v>0.4968283858762134</v>
-      </c>
-      <c r="H67">
-        <v>-13281.8777320443</v>
-      </c>
-      <c r="I67">
-        <v>0.08872754760605374</v>
-      </c>
-      <c r="J67">
-        <v>0.227427088099913</v>
-      </c>
-      <c r="K67" t="s">
-        <v>171</v>
-      </c>
-      <c r="L67">
-        <v>251</v>
-      </c>
-      <c r="M67" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68">
-        <v>26292.732635656</v>
-      </c>
-      <c r="D68">
-        <v>0.3339918032782927</v>
-      </c>
-      <c r="E68">
-        <v>0.4660491127984842</v>
-      </c>
-      <c r="F68">
-        <v>0.5159860003571431</v>
-      </c>
-      <c r="G68">
-        <v>0.4830527860405395</v>
-      </c>
-      <c r="H68">
-        <v>-13120.92377404222</v>
-      </c>
-      <c r="I68">
-        <v>0.09539015122370303</v>
-      </c>
-      <c r="J68">
-        <v>0.2548159089907016</v>
-      </c>
-      <c r="K68" t="s">
-        <v>172</v>
-      </c>
-      <c r="L68">
-        <v>251</v>
-      </c>
-      <c r="M68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69">
-        <v>27001.6686838468</v>
-      </c>
-      <c r="D69">
-        <v>0.3542999316240236</v>
-      </c>
-      <c r="E69">
-        <v>0.4792791003676897</v>
-      </c>
-      <c r="F69">
-        <v>0.5030692820274579</v>
-      </c>
-      <c r="G69">
-        <v>0.4960189619068326</v>
-      </c>
-      <c r="H69">
-        <v>-13475.41168528161</v>
-      </c>
-      <c r="I69">
-        <v>0.08846891598725784</v>
-      </c>
-      <c r="J69">
-        <v>0.2257272102307502</v>
-      </c>
-      <c r="K69" t="s">
-        <v>173</v>
-      </c>
-      <c r="L69">
-        <v>251</v>
-      </c>
-      <c r="M69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70">
-        <v>26838.62868512532</v>
-      </c>
-      <c r="D70">
-        <v>0.3671662733550002</v>
-      </c>
-      <c r="E70">
-        <v>0.4764889126240429</v>
-      </c>
-      <c r="F70">
-        <v>0.5057851056671028</v>
-      </c>
-      <c r="G70">
-        <v>0.4932908851013711</v>
-      </c>
-      <c r="H70">
-        <v>-13393.84538007611</v>
-      </c>
-      <c r="I70">
-        <v>0.08628965614718533</v>
-      </c>
-      <c r="J70">
-        <v>0.2132395822078647</v>
-      </c>
-      <c r="K70" t="s">
-        <v>174</v>
-      </c>
-      <c r="L70">
-        <v>251</v>
-      </c>
-      <c r="M70" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71">
-        <v>26678.7571544384</v>
-      </c>
-      <c r="D71">
-        <v>0.3432375249564818</v>
-      </c>
-      <c r="E71">
-        <v>0.4733471250049216</v>
-      </c>
-      <c r="F71">
-        <v>0.5088569726817528</v>
-      </c>
-      <c r="G71">
-        <v>0.4902091644102585</v>
-      </c>
-      <c r="H71">
-        <v>-13313.94460128951</v>
-      </c>
-      <c r="I71">
-        <v>0.09145383285466636</v>
-      </c>
-      <c r="J71">
-        <v>0.2375520048584266</v>
-      </c>
-      <c r="K71" t="s">
-        <v>175</v>
-      </c>
-      <c r="L71">
-        <v>251</v>
-      </c>
-      <c r="M71" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72">
-        <v>26868.44518228699</v>
-      </c>
-      <c r="D72">
-        <v>0.3540910174309723</v>
-      </c>
-      <c r="E72">
-        <v>0.4768344658074072</v>
-      </c>
-      <c r="F72">
-        <v>0.5054542033731438</v>
-      </c>
-      <c r="G72">
-        <v>0.4936251038159819</v>
-      </c>
-      <c r="H72">
-        <v>-13408.7982534448</v>
-      </c>
-      <c r="I72">
-        <v>0.08816599764458331</v>
-      </c>
-      <c r="J72">
-        <v>0.2242906318104591</v>
-      </c>
-      <c r="K72" t="s">
-        <v>176</v>
-      </c>
-      <c r="L72">
-        <v>251</v>
-      </c>
-      <c r="M72" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73">
-        <v>31939.84627490327</v>
-      </c>
-      <c r="D73">
-        <v>0.4014538184279224</v>
-      </c>
-      <c r="E73">
-        <v>0.5504458296300432</v>
-      </c>
-      <c r="F73">
-        <v>0.4341906929291502</v>
-      </c>
-      <c r="G73">
-        <v>0.5651846305294557</v>
-      </c>
-      <c r="H73">
-        <v>-15945.98141925194</v>
-      </c>
-      <c r="I73">
-        <v>0.09075535127018389</v>
-      </c>
-      <c r="J73">
-        <v>0.246276480262138</v>
-      </c>
-      <c r="K73" t="s">
-        <v>177</v>
-      </c>
-      <c r="L73">
-        <v>251</v>
-      </c>
-      <c r="M73" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74">
-        <v>29127.07244337569</v>
-      </c>
-      <c r="D74">
-        <v>0.3957017515262806</v>
-      </c>
-      <c r="E74">
-        <v>0.5089348372126813</v>
-      </c>
-      <c r="F74">
-        <v>0.4744105457986081</v>
-      </c>
-      <c r="G74">
-        <v>0.5248423651467622</v>
-      </c>
-      <c r="H74">
-        <v>-14539.63958566466</v>
-      </c>
-      <c r="I74">
-        <v>0.08778675214999317</v>
-      </c>
-      <c r="J74">
-        <v>0.226837286297398</v>
-      </c>
-      <c r="K74" t="s">
-        <v>178</v>
-      </c>
-      <c r="L74">
-        <v>251</v>
-      </c>
-      <c r="M74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75">
-        <v>28485.42425604908</v>
-      </c>
-      <c r="D75">
-        <v>0.3745039484180855</v>
-      </c>
-      <c r="E75">
-        <v>0.4988438798367629</v>
-      </c>
-      <c r="F75">
-        <v>0.4842071435698161</v>
-      </c>
-      <c r="G75">
-        <v>0.5150097671746322</v>
-      </c>
-      <c r="H75">
-        <v>-14218.71675411124</v>
-      </c>
-      <c r="I75">
-        <v>0.09005997981107214</v>
-      </c>
-      <c r="J75">
-        <v>0.2383890329981702</v>
-      </c>
-      <c r="K75" t="s">
-        <v>179</v>
-      </c>
-      <c r="L75">
-        <v>251</v>
-      </c>
-      <c r="M75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76">
-        <v>31399.7028965422</v>
-      </c>
-      <c r="D76">
-        <v>0.3887923302277494</v>
-      </c>
-      <c r="E76">
-        <v>0.5433228728887165</v>
-      </c>
-      <c r="F76">
-        <v>0.4410681922247219</v>
-      </c>
-      <c r="G76">
-        <v>0.5582844858660163</v>
-      </c>
-      <c r="H76">
-        <v>-15675.84521424141</v>
-      </c>
-      <c r="I76">
-        <v>0.09067432517217473</v>
-      </c>
-      <c r="J76">
-        <v>0.2486682182929344</v>
-      </c>
-      <c r="K76" t="s">
-        <v>180</v>
-      </c>
-      <c r="L76">
-        <v>251</v>
-      </c>
-      <c r="M76" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77">
-        <v>30573.06648466971</v>
-      </c>
-      <c r="D77">
-        <v>0.3839399708577378</v>
-      </c>
-      <c r="E77">
-        <v>0.5319970594134652</v>
-      </c>
-      <c r="F77">
-        <v>0.452014579235096</v>
-      </c>
-      <c r="G77">
-        <v>0.547300824977625</v>
-      </c>
-      <c r="H77">
-        <v>-15262.41764539678</v>
-      </c>
-      <c r="I77">
-        <v>0.09338491220162345</v>
-      </c>
-      <c r="J77">
-        <v>0.2594690021372577</v>
-      </c>
-      <c r="K77" t="s">
-        <v>181</v>
-      </c>
-      <c r="L77">
-        <v>251</v>
-      </c>
-      <c r="M77" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78">
-        <v>28123.27593028413</v>
-      </c>
-      <c r="D78">
-        <v>0.3397065467795286</v>
-      </c>
-      <c r="E78">
-        <v>0.4972326400941446</v>
-      </c>
-      <c r="F78">
-        <v>0.485636641770161</v>
-      </c>
-      <c r="G78">
-        <v>0.5135325171859145</v>
-      </c>
-      <c r="H78">
-        <v>-14036.62370820217</v>
-      </c>
-      <c r="I78">
-        <v>0.09920036398823742</v>
-      </c>
-      <c r="J78">
-        <v>0.2770914520251167</v>
-      </c>
-      <c r="K78" t="s">
-        <v>182</v>
-      </c>
-      <c r="L78">
-        <v>251</v>
-      </c>
-      <c r="M78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79">
-        <v>27201.9223242683</v>
-      </c>
-      <c r="D79">
-        <v>0.3347472573434666</v>
-      </c>
-      <c r="E79">
-        <v>0.4811528351165518</v>
-      </c>
-      <c r="F79">
-        <v>0.5012960542983922</v>
-      </c>
-      <c r="G79">
-        <v>0.4978164195038011</v>
-      </c>
-      <c r="H79">
-        <v>-13575.9254861596</v>
-      </c>
-      <c r="I79">
-        <v>0.09795930958736766</v>
-      </c>
-      <c r="J79">
-        <v>0.2714259172141943</v>
-      </c>
-      <c r="K79" t="s">
-        <v>183</v>
-      </c>
-      <c r="L79">
-        <v>251</v>
-      </c>
-      <c r="M79" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80">
-        <v>27243.38474508097</v>
-      </c>
-      <c r="D80">
-        <v>0.3465534456821788</v>
-      </c>
-      <c r="E80">
-        <v>0.48179401587521</v>
-      </c>
-      <c r="F80">
-        <v>0.500674105998607</v>
-      </c>
-      <c r="G80">
-        <v>0.4984417024191308</v>
-      </c>
-      <c r="H80">
-        <v>-13596.68060442007</v>
-      </c>
-      <c r="I80">
-        <v>0.09230628570356074</v>
-      </c>
-      <c r="J80">
-        <v>0.242888086255164</v>
-      </c>
-      <c r="K80" t="s">
-        <v>184</v>
-      </c>
-      <c r="L80">
-        <v>251</v>
-      </c>
-      <c r="M80" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81">
-        <v>27456.32715993494</v>
-      </c>
-      <c r="D81">
-        <v>0.3322598501318027</v>
-      </c>
-      <c r="E81">
-        <v>0.4863104772739211</v>
-      </c>
-      <c r="F81">
-        <v>0.4962500455721612</v>
-      </c>
-      <c r="G81">
-        <v>0.502874817791619</v>
-      </c>
-      <c r="H81">
-        <v>-13702.99835118778</v>
-      </c>
-      <c r="I81">
-        <v>0.09473548688561331</v>
-      </c>
-      <c r="J81">
-        <v>0.2644568966757526</v>
-      </c>
-      <c r="K81" t="s">
-        <v>185</v>
-      </c>
-      <c r="L81">
-        <v>251</v>
-      </c>
-      <c r="M81" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82">
-        <v>26866.01500338511</v>
-      </c>
-      <c r="D82">
-        <v>0.334316717796304</v>
-      </c>
-      <c r="E82">
-        <v>0.4755434143826246</v>
-      </c>
-      <c r="F82">
-        <v>0.506752354078607</v>
-      </c>
-      <c r="G82">
-        <v>0.4923347065991075</v>
-      </c>
-      <c r="H82">
-        <v>-13407.85259493621</v>
-      </c>
-      <c r="I82">
-        <v>0.09326508562583051</v>
-      </c>
-      <c r="J82">
-        <v>0.2505167160418552</v>
-      </c>
-      <c r="K82" t="s">
-        <v>186</v>
-      </c>
-      <c r="L82">
-        <v>251</v>
-      </c>
-      <c r="M82" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83">
-        <v>27186.68660741799</v>
-      </c>
-      <c r="D83">
-        <v>0.2934684315578147</v>
-      </c>
-      <c r="E83">
-        <v>0.4657557527735422</v>
-      </c>
-      <c r="F83">
-        <v>0.5167903856488784</v>
-      </c>
-      <c r="G83">
-        <v>0.4824192296448881</v>
-      </c>
-      <c r="H83">
-        <v>-13571.58677471014</v>
-      </c>
-      <c r="I83">
-        <v>0.1125300767736769</v>
-      </c>
-      <c r="J83">
-        <v>0.339773806196287</v>
-      </c>
-      <c r="K83" t="s">
-        <v>187</v>
-      </c>
-      <c r="L83">
-        <v>251</v>
-      </c>
-      <c r="M83" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84">
-        <v>28594.631899658</v>
-      </c>
-      <c r="D84">
-        <v>0.322687827517881</v>
-      </c>
-      <c r="E84">
-        <v>0.5051745233196663</v>
-      </c>
-      <c r="F84">
-        <v>0.4779133634154047</v>
-      </c>
-      <c r="G84">
-        <v>0.521282106477175</v>
-      </c>
-      <c r="H84">
-        <v>-14272.28965634289</v>
-      </c>
-      <c r="I84">
-        <v>0.1048272256365707</v>
-      </c>
-      <c r="J84">
-        <v>0.3011763943734063</v>
-      </c>
-      <c r="K84" t="s">
-        <v>188</v>
-      </c>
-      <c r="L84">
-        <v>251</v>
-      </c>
-      <c r="M84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85">
-        <v>28048.45795261914</v>
-      </c>
-      <c r="D85">
-        <v>0.3170382956563934</v>
-      </c>
-      <c r="E85">
-        <v>0.4965676569265168</v>
-      </c>
-      <c r="F85">
-        <v>0.4862648070065129</v>
-      </c>
-      <c r="G85">
-        <v>0.5128962717607037</v>
-      </c>
-      <c r="H85">
-        <v>-13999.07727337982</v>
-      </c>
-      <c r="I85">
-        <v>0.1028246147930798</v>
-      </c>
-      <c r="J85">
-        <v>0.3045368171777898</v>
-      </c>
-      <c r="K85" t="s">
-        <v>189</v>
-      </c>
-      <c r="L85">
-        <v>251</v>
-      </c>
-      <c r="M85" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86">
-        <v>27050.93343477834</v>
-      </c>
-      <c r="D86">
-        <v>0.2772467726601248</v>
-      </c>
-      <c r="E86">
-        <v>0.4625720538519763</v>
-      </c>
-      <c r="F86">
-        <v>0.5199246868834578</v>
-      </c>
-      <c r="G86">
-        <v>0.4792813961166917</v>
-      </c>
-      <c r="H86">
-        <v>-13503.84655140936</v>
-      </c>
-      <c r="I86">
-        <v>0.1184613158057395</v>
-      </c>
-      <c r="J86">
-        <v>0.3748507375373653</v>
-      </c>
-      <c r="K86" t="s">
-        <v>190</v>
-      </c>
-      <c r="L86">
-        <v>251</v>
-      </c>
-      <c r="M86" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87">
-        <v>26521.01256433758</v>
-      </c>
-      <c r="D87">
-        <v>0.2837514690868471</v>
-      </c>
-      <c r="E87">
-        <v>0.4523252047709133</v>
-      </c>
-      <c r="F87">
-        <v>0.5299652148799385</v>
-      </c>
-      <c r="G87">
-        <v>0.4692097827211681</v>
-      </c>
-      <c r="H87">
-        <v>-13238.89715235661</v>
-      </c>
-      <c r="I87">
-        <v>0.1165221176149746</v>
-      </c>
-      <c r="J87">
-        <v>0.3608698839349736</v>
-      </c>
-      <c r="K87" t="s">
-        <v>191</v>
-      </c>
-      <c r="L87">
-        <v>251</v>
-      </c>
-      <c r="M87" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88">
-        <v>26084.55743912715</v>
-      </c>
-      <c r="D88">
-        <v>0.2876121472134553</v>
-      </c>
-      <c r="E88">
-        <v>0.4435573828022716</v>
-      </c>
-      <c r="F88">
-        <v>0.5385713742420473</v>
-      </c>
-      <c r="G88">
-        <v>0.4605768001645695</v>
-      </c>
-      <c r="H88">
-        <v>-13020.68469433967</v>
-      </c>
-      <c r="I88">
-        <v>0.113787051583407</v>
-      </c>
-      <c r="J88">
-        <v>0.3418056346616217</v>
-      </c>
-      <c r="K88" t="s">
         <v>192</v>
-      </c>
-      <c r="L88">
-        <v>251</v>
-      </c>
-      <c r="M88" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89">
-        <v>26291.30421193987</v>
-      </c>
-      <c r="D89">
-        <v>0.3389853524806435</v>
-      </c>
-      <c r="E89">
-        <v>0.4641212537701783</v>
-      </c>
-      <c r="F89">
-        <v>0.5179287979954402</v>
-      </c>
-      <c r="G89">
-        <v>0.4811222317205772</v>
-      </c>
-      <c r="H89">
-        <v>-13120.61198514684</v>
-      </c>
-      <c r="I89">
-        <v>0.0948960022803958</v>
-      </c>
-      <c r="J89">
-        <v>0.2523409044093589</v>
-      </c>
-      <c r="K89" t="s">
-        <v>193</v>
-      </c>
-      <c r="L89">
-        <v>251</v>
-      </c>
-      <c r="M89" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90">
-        <v>25821.14650322891</v>
-      </c>
-      <c r="D90">
-        <v>0.27951708227379</v>
-      </c>
-      <c r="E90">
-        <v>0.4390850609789952</v>
-      </c>
-      <c r="F90">
-        <v>0.542938857692123</v>
-      </c>
-      <c r="G90">
-        <v>0.4561857456535762</v>
-      </c>
-      <c r="H90">
-        <v>-12888.79226409419</v>
-      </c>
-      <c r="I90">
-        <v>0.1146460599040138</v>
-      </c>
-      <c r="J90">
-        <v>0.3484367992246766</v>
-      </c>
-      <c r="K90" t="s">
-        <v>194</v>
-      </c>
-      <c r="L90">
-        <v>251</v>
-      </c>
-      <c r="M90" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91">
-        <v>26916.95214536535</v>
-      </c>
-      <c r="D91">
-        <v>0.3526839252345826</v>
-      </c>
-      <c r="E91">
-        <v>0.4768231594916262</v>
-      </c>
-      <c r="F91">
-        <v>0.5054930029830793</v>
-      </c>
-      <c r="G91">
-        <v>0.4935953030918759</v>
-      </c>
-      <c r="H91">
-        <v>-13433.24821844513</v>
-      </c>
-      <c r="I91">
-        <v>0.09060285558002913</v>
-      </c>
-      <c r="J91">
-        <v>0.232606989293116</v>
-      </c>
-      <c r="K91" t="s">
-        <v>195</v>
-      </c>
-      <c r="L91">
-        <v>251</v>
-      </c>
-      <c r="M91" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92">
-        <v>26088.35563345211</v>
-      </c>
-      <c r="D92">
-        <v>0.2866605454106448</v>
-      </c>
-      <c r="E92">
-        <v>0.4444704565566218</v>
-      </c>
-      <c r="F92">
-        <v>0.5376504021108717</v>
-      </c>
-      <c r="G92">
-        <v>0.4614921956062402</v>
-      </c>
-      <c r="H92">
-        <v>-13022.41070741969</v>
-      </c>
-      <c r="I92">
-        <v>0.1113874413079532</v>
-      </c>
-      <c r="J92">
-        <v>0.3359289497733607</v>
-      </c>
-      <c r="K92" t="s">
-        <v>196</v>
-      </c>
-      <c r="L92">
-        <v>251</v>
-      </c>
-      <c r="M92" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93">
-        <v>28377.38911988243</v>
-      </c>
-      <c r="D93">
-        <v>0.4108334968455491</v>
-      </c>
-      <c r="E93">
-        <v>0.5005302476838133</v>
-      </c>
-      <c r="F93">
-        <v>0.4824597893677131</v>
-      </c>
-      <c r="G93">
-        <v>0.5167298656179506</v>
-      </c>
-      <c r="H93">
-        <v>-14163.90470260547</v>
-      </c>
-      <c r="I93">
-        <v>0.0778920724386431</v>
-      </c>
-      <c r="J93">
-        <v>0.1790634787108075</v>
-      </c>
-      <c r="K93" t="s">
-        <v>197</v>
-      </c>
-      <c r="L93">
-        <v>251</v>
-      </c>
-      <c r="M93" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94">
-        <v>27351.50071875865</v>
-      </c>
-      <c r="D94">
-        <v>0.3251363749724588</v>
-      </c>
-      <c r="E94">
-        <v>0.4675673359811048</v>
-      </c>
-      <c r="F94">
-        <v>0.51505525401765</v>
-      </c>
-      <c r="G94">
-        <v>0.4841719764335638</v>
-      </c>
-      <c r="H94">
-        <v>-13654.26401474082</v>
-      </c>
-      <c r="I94">
-        <v>0.1000411518263577</v>
-      </c>
-      <c r="J94">
-        <v>0.279312221351291</v>
-      </c>
-      <c r="K94" t="s">
-        <v>198</v>
-      </c>
-      <c r="L94">
-        <v>251</v>
-      </c>
-      <c r="M94" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95">
-        <v>27195.49304558513</v>
-      </c>
-      <c r="D95">
-        <v>0.3126045296865483</v>
-      </c>
-      <c r="E95">
-        <v>0.4468823352236995</v>
-      </c>
-      <c r="F95">
-        <v>0.5358407681176475</v>
-      </c>
-      <c r="G95">
-        <v>0.4635006188148624</v>
-      </c>
-      <c r="H95">
-        <v>-13580.05499387508</v>
-      </c>
-      <c r="I95">
-        <v>0.101294563565644</v>
-      </c>
-      <c r="J95">
-        <v>0.2793378876490735</v>
-      </c>
-      <c r="K95" t="s">
-        <v>199</v>
-      </c>
-      <c r="L95">
-        <v>251</v>
-      </c>
-      <c r="M95" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
